--- a/Signal processing tool.xlsx
+++ b/Signal processing tool.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uporabnik\Documents\Neural-Network-from-Scratch-for-Arduino-Clap-Recognition\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E134EB6-7662-4E1B-A7CE-3B943DD7E291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="6_{67589678-616C-4BF5-9417-A5E84AD2E76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{379F90E3-845E-456C-9B0C-90CEE4BEF997}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{368B135D-14A8-4707-A4A9-8B692AD8CD57}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{368B135D-14A8-4707-A4A9-8B692AD8CD57}"/>
   </bookViews>
   <sheets>
     <sheet name="Digital signal processing" sheetId="1" r:id="rId1"/>
@@ -1442,7 +1437,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1450,6 +1444,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2610,7 +2605,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2618,6 +2612,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4079,7 +4074,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4087,6 +4081,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6802,34 +6797,34 @@
   <dimension ref="A1:DD267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.26953125" customWidth="1"/>
-    <col min="2" max="3" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="53.28515625" customWidth="1"/>
+    <col min="2" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.7265625" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" customWidth="1"/>
-    <col min="16" max="16" width="9.36328125" customWidth="1"/>
-    <col min="17" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" customWidth="1"/>
-    <col min="19" max="19" width="13.08984375" customWidth="1"/>
-    <col min="20" max="20" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:108" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:108" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>21</v>
       </c>
@@ -6943,7 +6938,7 @@
       <c r="DC3" s="29"/>
       <c r="DD3" s="29"/>
     </row>
-    <row r="4" spans="1:108" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:108" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7059,7 +7054,7 @@
       <c r="DC4" s="10"/>
       <c r="DD4" s="10"/>
     </row>
-    <row r="5" spans="1:108" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:108" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="11"/>
@@ -7174,7 +7169,7 @@
       <c r="DC5" s="10"/>
       <c r="DD5" s="10"/>
     </row>
-    <row r="6" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:108" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
@@ -7205,7 +7200,7 @@
       </c>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:108" x14ac:dyDescent="0.25">
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
@@ -7214,7 +7209,7 @@
         <v>968.85972465435952</v>
       </c>
     </row>
-    <row r="8" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:108" x14ac:dyDescent="0.25">
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
@@ -7237,7 +7232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:108" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="22" t="s">
         <v>5</v>
@@ -7267,11 +7262,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:108" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:108" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -7334,7 +7329,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:108" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>0</v>
       </c>
@@ -7399,7 +7394,7 @@
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
     </row>
-    <row r="13" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:108" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f>B12+1</f>
         <v>1</v>
@@ -7489,7 +7484,7 @@
         <v>4.4259260514179202</v>
       </c>
     </row>
-    <row r="14" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:108" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f t="shared" ref="B14:B25" si="8">B13+1</f>
         <v>2</v>
@@ -7580,7 +7575,7 @@
         <v>4.3806809163596814</v>
       </c>
     </row>
-    <row r="15" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:108" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -7671,7 +7666,7 @@
         <v>4.5486510791541601</v>
       </c>
     </row>
-    <row r="16" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:108" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -7762,7 +7757,7 @@
         <v>4.4632960023852908</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -7853,7 +7848,7 @@
         <v>4.3909336402900765</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -7944,7 +7939,7 @@
         <v>4.2893434217431672</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <f t="shared" si="8"/>
         <v>7</v>
@@ -8015,7 +8010,7 @@
       <c r="Y19" s="24"/>
       <c r="Z19" s="17"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f t="shared" si="8"/>
         <v>8</v>
@@ -8077,7 +8072,7 @@
       <c r="Y20" s="24"/>
       <c r="Z20" s="17"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -8139,7 +8134,7 @@
       <c r="Y21" s="24"/>
       <c r="Z21" s="17"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
@@ -8201,7 +8196,7 @@
       <c r="Y22" s="24"/>
       <c r="Z22" s="17"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <f t="shared" si="8"/>
         <v>11</v>
@@ -8263,7 +8258,7 @@
       <c r="Y23" s="24"/>
       <c r="Z23" s="17"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f t="shared" si="8"/>
         <v>12</v>
@@ -8325,7 +8320,7 @@
       <c r="Y24" s="24"/>
       <c r="Z24" s="17"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f t="shared" si="8"/>
         <v>13</v>
@@ -8387,7 +8382,7 @@
       <c r="Y25" s="24"/>
       <c r="Z25" s="17"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <f t="shared" ref="B26:B89" si="17">B25+1</f>
         <v>14</v>
@@ -8447,7 +8442,7 @@
       <c r="U26" s="2"/>
       <c r="Z26" s="17"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <f t="shared" si="17"/>
         <v>15</v>
@@ -8506,7 +8501,7 @@
       <c r="U27" s="2"/>
       <c r="Z27" s="17"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <f t="shared" si="17"/>
         <v>16</v>
@@ -8565,7 +8560,7 @@
       <c r="U28" s="2"/>
       <c r="Z28" s="17"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <f t="shared" si="17"/>
         <v>17</v>
@@ -8624,7 +8619,7 @@
       <c r="U29" s="2"/>
       <c r="Z29" s="17"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <f t="shared" si="17"/>
         <v>18</v>
@@ -8683,7 +8678,7 @@
       <c r="U30" s="2"/>
       <c r="Z30" s="17"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <f t="shared" si="17"/>
         <v>19</v>
@@ -8742,7 +8737,7 @@
       <c r="U31" s="2"/>
       <c r="Z31" s="17"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <f t="shared" si="17"/>
         <v>20</v>
@@ -8801,7 +8796,7 @@
       <c r="U32" s="2"/>
       <c r="Z32" s="17"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <f t="shared" si="17"/>
         <v>21</v>
@@ -8860,7 +8855,7 @@
       <c r="U33" s="2"/>
       <c r="Z33" s="17"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <f t="shared" si="17"/>
         <v>22</v>
@@ -8919,7 +8914,7 @@
       <c r="U34" s="2"/>
       <c r="Z34" s="17"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <f t="shared" si="17"/>
         <v>23</v>
@@ -8978,7 +8973,7 @@
       <c r="U35" s="2"/>
       <c r="Z35" s="17"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <f t="shared" si="17"/>
         <v>24</v>
@@ -9037,7 +9032,7 @@
       <c r="U36" s="2"/>
       <c r="Z36" s="17"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <f t="shared" si="17"/>
         <v>25</v>
@@ -9096,7 +9091,7 @@
       <c r="U37" s="2"/>
       <c r="Z37" s="17"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <f t="shared" si="17"/>
         <v>26</v>
@@ -9155,7 +9150,7 @@
       <c r="U38" s="2"/>
       <c r="Z38" s="17"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <f t="shared" si="17"/>
         <v>27</v>
@@ -9218,7 +9213,7 @@
       <c r="X39" s="18"/>
       <c r="Y39" s="18"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <f t="shared" si="17"/>
         <v>28</v>
@@ -9274,7 +9269,7 @@
       </c>
       <c r="S40" s="17"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <f t="shared" si="17"/>
         <v>29</v>
@@ -9329,7 +9324,7 @@
         <v>2157.9441619655486</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <f t="shared" si="17"/>
         <v>30</v>
@@ -9384,7 +9379,7 @@
         <v>2190.6010307199804</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <f t="shared" si="17"/>
         <v>31</v>
@@ -9439,7 +9434,7 @@
         <v>2222.3381904304274</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <f t="shared" si="17"/>
         <v>32</v>
@@ -9494,7 +9489,7 @@
         <v>2253.2060284597374</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <f t="shared" si="17"/>
         <v>33</v>
@@ -9549,7 +9544,7 @@
         <v>2283.2509015389032</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <f t="shared" si="17"/>
         <v>34</v>
@@ -9604,7 +9599,7 @@
         <v>2312.5155545213888</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <f t="shared" si="17"/>
         <v>35</v>
@@ -9659,7 +9654,7 @@
         <v>2341.0394861293044</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <f t="shared" si="17"/>
         <v>36</v>
@@ -9714,7 +9709,7 @@
         <v>2368.8592695450789</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <f t="shared" si="17"/>
         <v>37</v>
@@ -9769,7 +9764,7 @@
         <v>2396.0088343773959</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <f t="shared" si="17"/>
         <v>38</v>
@@ -9824,7 +9819,7 @@
         <v>2422.5197154547222</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <f t="shared" si="17"/>
         <v>39</v>
@@ -9879,7 +9874,7 @@
         <v>2448.4212730221225</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <f t="shared" si="17"/>
         <v>40</v>
@@ -9934,7 +9929,7 @@
         <v>2473.7408881972397</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <f t="shared" si="17"/>
         <v>41</v>
@@ -9989,7 +9984,7 @@
         <v>2498.504136948035</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <f t="shared" si="17"/>
         <v>42</v>
@@ -10044,7 +10039,7 @@
         <v>2522.7349453637362</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <f t="shared" si="17"/>
         <v>43</v>
@@ -10099,7 +10094,7 @@
         <v>2546.4557285819778</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <f t="shared" si="17"/>
         <v>44</v>
@@ -10154,7 +10149,7 @@
         <v>2569.68751539406</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <f t="shared" si="17"/>
         <v>45</v>
@@ -10209,7 +10204,7 @@
         <v>2592.4500602643116</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <f t="shared" si="17"/>
         <v>46</v>
@@ -10264,7 +10259,7 @@
         <v>2614.7619442589025</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <f t="shared" si="17"/>
         <v>47</v>
@@ -10319,7 +10314,7 @@
         <v>2636.6406661761916</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <f t="shared" si="17"/>
         <v>48</v>
@@ -10374,7 +10369,7 @@
         <v>2658.1027249984231</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <f t="shared" si="17"/>
         <v>49</v>
@@ -10429,7 +10424,7 @@
         <v>2679.1636946380545</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <f t="shared" si="17"/>
         <v>50</v>
@@ -10484,7 +10479,7 @@
         <v>2699.8382918269981</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <f t="shared" si="17"/>
         <v>51</v>
@@ -10539,7 +10534,7 @@
         <v>2720.140437890062</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <f t="shared" si="17"/>
         <v>52</v>
@@ -10594,7 +10589,7 @@
         <v>2740.0833150520316</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <f t="shared" si="17"/>
         <v>53</v>
@@ -10649,7 +10644,7 @@
         <v>2759.6794178487876</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <f t="shared" si="17"/>
         <v>54</v>
@@ -10704,7 +10699,7 @@
         <v>2778.9406001445786</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
         <f t="shared" si="17"/>
         <v>55</v>
@@ -10759,7 +10754,7 @@
         <v>2797.8781181985223</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <f t="shared" si="17"/>
         <v>56</v>
@@ -10814,7 +10809,7 @@
         <v>2816.5026701721176</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
         <f t="shared" si="17"/>
         <v>57</v>
@@ -10869,7 +10864,7 @@
         <v>2834.8244324249854</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <f t="shared" si="17"/>
         <v>58</v>
@@ -10924,7 +10919,7 @@
         <v>2852.8530929071417</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <f t="shared" si="17"/>
         <v>59</v>
@@ -10979,7 +10974,7 @@
         <v>2870.5978819221427</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
         <f t="shared" si="17"/>
         <v>60</v>
@@ -11034,7 +11029,7 @@
         <v>2888.0676005056584</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <f t="shared" si="17"/>
         <v>61</v>
@@ -11089,7 +11084,7 @@
         <v>2905.2706466378922</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <f t="shared" si="17"/>
         <v>62</v>
@@ -11144,7 +11139,7 @@
         <v>2922.2150394852856</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <f t="shared" si="17"/>
         <v>63</v>
@@ -11199,7 +11194,7 @@
         <v>2938.9084418466714</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
         <f t="shared" si="17"/>
         <v>64</v>
@@ -11254,7 +11249,7 @@
         <v>2955.3581809611433</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <f t="shared" si="17"/>
         <v>65</v>
@@ -11309,7 +11304,7 @@
         <v>2971.5712678190625</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <f t="shared" si="17"/>
         <v>66</v>
@@ -11364,7 +11359,7 @@
         <v>2987.5544151035929</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
         <f t="shared" si="17"/>
         <v>67</v>
@@ -11419,7 +11414,7 @@
         <v>3003.3140538776797</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <f t="shared" si="17"/>
         <v>68</v>
@@ -11474,7 +11469,7 @@
         <v>3018.8563491202817</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
         <f t="shared" si="17"/>
         <v>69</v>
@@ -11529,7 +11524,7 @@
         <v>3034.1872142058078</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <f t="shared" si="17"/>
         <v>70</v>
@@ -11584,7 +11579,7 @@
         <v>3049.3123244118369</v>
       </c>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
         <f t="shared" si="17"/>
         <v>71</v>
@@ -11639,7 +11634,7 @@
         <v>3064.2371295323742</v>
       </c>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
         <f t="shared" si="17"/>
         <v>72</v>
@@ -11694,7 +11689,7 @@
         <v>3078.9668656667545</v>
       </c>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <f t="shared" si="17"/>
         <v>73</v>
@@ -11749,7 +11744,7 @@
         <v>3093.5065662480451</v>
       </c>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
         <f t="shared" si="17"/>
         <v>74</v>
@@ -11804,7 +11799,7 @@
         <v>3107.8610723690499</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
         <f t="shared" si="17"/>
         <v>75</v>
@@ -11859,7 +11854,7 @@
         <v>3122.0350424589246</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
         <f t="shared" si="17"/>
         <v>76</v>
@@ -11914,7 +11909,7 @@
         <v>3136.0329613588146</v>
       </c>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" s="2">
         <f t="shared" si="17"/>
         <v>77</v>
@@ -11969,7 +11964,7 @@
         <v>3149.8591488407451</v>
       </c>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
         <f t="shared" ref="B90:B153" si="30">B89+1</f>
         <v>78</v>
@@ -12024,7 +12019,7 @@
         <v>3163.5177676102498</v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
         <f t="shared" si="30"/>
         <v>79</v>
@@ -12079,7 +12074,7 @@
         <v>3177.0128308298422</v>
       </c>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
         <f t="shared" si="30"/>
         <v>80</v>
@@ -12134,7 +12129,7 @@
         <v>3190.3482091973469</v>
       </c>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
         <f t="shared" si="30"/>
         <v>81</v>
@@ -12189,7 +12184,7 @@
         <v>3203.5276376103161</v>
       </c>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="2">
         <f t="shared" si="30"/>
         <v>82</v>
@@ -12244,7 +12239,7 @@
         <v>3216.5547214452613</v>
       </c>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
         <f t="shared" si="30"/>
         <v>83</v>
@@ -12299,7 +12294,7 @@
         <v>3229.432942478089</v>
       </c>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
         <f t="shared" si="30"/>
         <v>84</v>
@@ -12354,7 +12349,7 @@
         <v>3242.1656644700811</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
         <f t="shared" si="30"/>
         <v>85</v>
@@ -12409,7 +12404,7 @@
         <v>3254.7561384418273</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
         <f t="shared" si="30"/>
         <v>86</v>
@@ -12464,7 +12459,7 @@
         <v>3267.207507655809</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <f t="shared" si="30"/>
         <v>87</v>
@@ -12519,7 +12514,7 @@
         <v>3279.5228123267266</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
         <f t="shared" si="30"/>
         <v>88</v>
@@ -12574,7 +12569,7 @@
         <v>3291.7049940772317</v>
       </c>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
         <f t="shared" si="30"/>
         <v>89</v>
@@ -12629,7 +12624,7 @@
         <v>3303.7569001554134</v>
       </c>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
         <f t="shared" si="30"/>
         <v>90</v>
@@ -12684,7 +12679,7 @@
         <v>3315.68128742914</v>
       </c>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" s="2">
         <f t="shared" si="30"/>
         <v>91</v>
@@ -12739,7 +12734,7 @@
         <v>3327.480826171301</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
         <f t="shared" si="30"/>
         <v>92</v>
@@ -12794,7 +12789,7 @@
         <v>3339.1581036489288</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
         <f t="shared" si="30"/>
         <v>93</v>
@@ -12849,7 +12844,7 @@
         <v>3350.7156275282832</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
         <f t="shared" si="30"/>
         <v>94</v>
@@ -12904,7 +12899,7 @@
         <v>3362.1558291070946</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
         <f t="shared" si="30"/>
         <v>95</v>
@@ -12959,7 +12954,7 @@
         <v>3373.4810663844023</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B108" s="2">
         <f t="shared" si="30"/>
         <v>96</v>
@@ -13014,7 +13009,7 @@
         <v>3384.6936269776711</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109" s="2">
         <f t="shared" si="30"/>
         <v>97</v>
@@ -13069,7 +13064,7 @@
         <v>3395.7957308962218</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B110" s="2">
         <f t="shared" si="30"/>
         <v>98</v>
@@ -13124,7 +13119,7 @@
         <v>3406.7895331793779</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B111" s="2">
         <f t="shared" si="30"/>
         <v>99</v>
@@ -13179,7 +13174,7 @@
         <v>3417.6771264071808</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112" s="2">
         <f t="shared" si="30"/>
         <v>100</v>
@@ -13234,7 +13229,7 @@
         <v>3428.4605430909769</v>
       </c>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="2">
         <f t="shared" si="30"/>
         <v>101</v>
@@ -13289,7 +13284,7 @@
         <v>3439.141757950722</v>
       </c>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" s="2">
         <f t="shared" si="30"/>
         <v>102</v>
@@ -13344,7 +13339,7 @@
         <v>3449.7226900853743</v>
       </c>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" s="2">
         <f t="shared" si="30"/>
         <v>103</v>
@@ -13399,7 +13394,7 @@
         <v>3460.2052050423445</v>
       </c>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116" s="2">
         <f t="shared" si="30"/>
         <v>104</v>
@@ -13454,7 +13449,7 @@
         <v>3470.5911167915906</v>
       </c>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117" s="2">
         <f t="shared" si="30"/>
         <v>105</v>
@@ -13509,7 +13504,7 @@
         <v>3480.8821896095765</v>
       </c>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B118" s="2">
         <f t="shared" si="30"/>
         <v>106</v>
@@ -13564,7 +13559,7 @@
         <v>3491.0801398779859</v>
       </c>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B119" s="2">
         <f t="shared" si="30"/>
         <v>107</v>
@@ -13619,7 +13614,7 @@
         <v>3501.1866378017889</v>
       </c>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B120" s="2">
         <f t="shared" si="30"/>
         <v>108</v>
@@ -13674,7 +13669,7 @@
         <v>3511.2033090509503</v>
       </c>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B121" s="2">
         <f t="shared" si="30"/>
         <v>109</v>
@@ -13729,7 +13724,7 @@
         <v>3521.1317363298226</v>
       </c>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B122" s="2">
         <f t="shared" si="30"/>
         <v>110</v>
@@ -13784,7 +13779,7 @@
         <v>3530.9734608780122</v>
       </c>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B123" s="2">
         <f t="shared" si="30"/>
         <v>111</v>
@@ -13839,7 +13834,7 @@
         <v>3540.7299839062775</v>
       </c>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B124" s="2">
         <f t="shared" si="30"/>
         <v>112</v>
@@ -13894,7 +13889,7 @@
         <v>3550.4027679708042</v>
       </c>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B125" s="2">
         <f t="shared" si="30"/>
         <v>113</v>
@@ -13949,7 +13944,7 @@
         <v>3559.9932382890029</v>
       </c>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B126" s="2">
         <f t="shared" si="30"/>
         <v>114</v>
@@ -14004,7 +13999,7 @@
         <v>3569.5027839997983</v>
       </c>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B127" s="2">
         <f t="shared" si="30"/>
         <v>115</v>
@@ -14059,7 +14054,7 @@
         <v>3578.9327593711814</v>
       </c>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B128" s="2">
         <f t="shared" si="30"/>
         <v>116</v>
@@ -14114,7 +14109,7 @@
         <v>3588.2844849576677</v>
       </c>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129" s="2">
         <f t="shared" si="30"/>
         <v>117</v>
@@ -14169,7 +14164,7 @@
         <v>3597.5592487101176</v>
       </c>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130" s="2">
         <f t="shared" si="30"/>
         <v>118</v>
@@ -14224,7 +14219,7 @@
         <v>3606.7583070402725</v>
       </c>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131" s="2">
         <f t="shared" si="30"/>
         <v>119</v>
@@ -14279,7 +14274,7 @@
         <v>3615.8828858421844</v>
       </c>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" s="2">
         <f t="shared" si="30"/>
         <v>120</v>
@@ -14334,7 +14329,7 @@
         <v>3624.9341814726322</v>
       </c>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133" s="2">
         <f t="shared" si="30"/>
         <v>121</v>
@@ -14389,7 +14384,7 @@
         <v>3633.9133616924819</v>
       </c>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B134" s="2">
         <f t="shared" si="30"/>
         <v>122</v>
@@ -14444,7 +14439,7 @@
         <v>3642.8215665708371</v>
       </c>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135" s="2">
         <f t="shared" si="30"/>
         <v>123</v>
@@ -14499,7 +14494,7 @@
         <v>3651.6599093537379</v>
       </c>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B136" s="2">
         <f t="shared" si="30"/>
         <v>124</v>
@@ -14554,7 +14549,7 @@
         <v>3660.4294772990579</v>
       </c>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137" s="2">
         <f t="shared" si="30"/>
         <v>125</v>
@@ -14609,7 +14604,7 @@
         <v>3669.1313324791731</v>
       </c>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138" s="2">
         <f t="shared" si="30"/>
         <v>126</v>
@@ -14664,7 +14659,7 @@
         <v>3677.7665125528733</v>
       </c>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139" s="2">
         <f t="shared" si="30"/>
         <v>127</v>
@@ -14719,7 +14714,7 @@
         <v>3686.3360315079281</v>
       </c>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140" s="2">
         <f t="shared" si="30"/>
         <v>128</v>
@@ -14774,7 +14769,7 @@
         <v>3694.8408803756338</v>
       </c>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141" s="2">
         <f t="shared" si="30"/>
         <v>129</v>
@@ -14814,7 +14809,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142" s="2">
         <f t="shared" si="30"/>
         <v>130</v>
@@ -14853,7 +14848,7 @@
       </c>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B143" s="2">
         <f t="shared" si="30"/>
         <v>131</v>
@@ -14892,7 +14887,7 @@
       </c>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B144" s="2">
         <f t="shared" si="30"/>
         <v>132</v>
@@ -14931,7 +14926,7 @@
       </c>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" s="2">
         <f t="shared" si="30"/>
         <v>133</v>
@@ -14970,7 +14965,7 @@
       </c>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" s="2">
         <f t="shared" si="30"/>
         <v>134</v>
@@ -15009,7 +15004,7 @@
       </c>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B147" s="2">
         <f t="shared" si="30"/>
         <v>135</v>
@@ -15048,7 +15043,7 @@
       </c>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B148" s="2">
         <f t="shared" si="30"/>
         <v>136</v>
@@ -15087,7 +15082,7 @@
       </c>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B149" s="2">
         <f t="shared" si="30"/>
         <v>137</v>
@@ -15126,7 +15121,7 @@
       </c>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B150" s="2">
         <f t="shared" si="30"/>
         <v>138</v>
@@ -15165,7 +15160,7 @@
       </c>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B151" s="2">
         <f t="shared" si="30"/>
         <v>139</v>
@@ -15204,7 +15199,7 @@
       </c>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" s="2">
         <f t="shared" si="30"/>
         <v>140</v>
@@ -15243,7 +15238,7 @@
       </c>
       <c r="K152" s="2"/>
     </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B153" s="2">
         <f t="shared" si="30"/>
         <v>141</v>
@@ -15282,7 +15277,7 @@
       </c>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B154" s="2">
         <f t="shared" ref="B154:B198" si="39">B153+1</f>
         <v>142</v>
@@ -15321,7 +15316,7 @@
       </c>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B155" s="2">
         <f t="shared" si="39"/>
         <v>143</v>
@@ -15360,7 +15355,7 @@
       </c>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B156" s="2">
         <f t="shared" si="39"/>
         <v>144</v>
@@ -15399,7 +15394,7 @@
       </c>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" s="2">
         <f t="shared" si="39"/>
         <v>145</v>
@@ -15438,7 +15433,7 @@
       </c>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" s="2">
         <f t="shared" si="39"/>
         <v>146</v>
@@ -15477,7 +15472,7 @@
       </c>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B159" s="2">
         <f t="shared" si="39"/>
         <v>147</v>
@@ -15516,7 +15511,7 @@
       </c>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B160" s="2">
         <f t="shared" si="39"/>
         <v>148</v>
@@ -15555,7 +15550,7 @@
       </c>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B161" s="2">
         <f t="shared" si="39"/>
         <v>149</v>
@@ -15594,7 +15589,7 @@
       </c>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B162" s="2">
         <f t="shared" si="39"/>
         <v>150</v>
@@ -15633,7 +15628,7 @@
       </c>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B163" s="2">
         <f t="shared" si="39"/>
         <v>151</v>
@@ -15672,7 +15667,7 @@
       </c>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B164" s="2">
         <f t="shared" si="39"/>
         <v>152</v>
@@ -15711,7 +15706,7 @@
       </c>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B165" s="2">
         <f t="shared" si="39"/>
         <v>153</v>
@@ -15750,7 +15745,7 @@
       </c>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B166" s="2">
         <f t="shared" si="39"/>
         <v>154</v>
@@ -15789,7 +15784,7 @@
       </c>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B167" s="2">
         <f t="shared" si="39"/>
         <v>155</v>
@@ -15828,7 +15823,7 @@
       </c>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B168" s="2">
         <f t="shared" si="39"/>
         <v>156</v>
@@ -15867,7 +15862,7 @@
       </c>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B169" s="2">
         <f t="shared" si="39"/>
         <v>157</v>
@@ -15906,7 +15901,7 @@
       </c>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B170" s="2">
         <f t="shared" si="39"/>
         <v>158</v>
@@ -15945,7 +15940,7 @@
       </c>
       <c r="K170" s="2"/>
     </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B171" s="2">
         <f t="shared" si="39"/>
         <v>159</v>
@@ -15984,7 +15979,7 @@
       </c>
       <c r="K171" s="2"/>
     </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B172" s="2">
         <f t="shared" si="39"/>
         <v>160</v>
@@ -16023,7 +16018,7 @@
       </c>
       <c r="K172" s="2"/>
     </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B173" s="2">
         <f t="shared" si="39"/>
         <v>161</v>
@@ -16062,7 +16057,7 @@
       </c>
       <c r="K173" s="2"/>
     </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B174" s="2">
         <f t="shared" si="39"/>
         <v>162</v>
@@ -16101,7 +16096,7 @@
       </c>
       <c r="K174" s="2"/>
     </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B175" s="2">
         <f t="shared" si="39"/>
         <v>163</v>
@@ -16140,7 +16135,7 @@
       </c>
       <c r="K175" s="2"/>
     </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B176" s="2">
         <f t="shared" si="39"/>
         <v>164</v>
@@ -16179,7 +16174,7 @@
       </c>
       <c r="K176" s="2"/>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B177" s="2">
         <f t="shared" si="39"/>
         <v>165</v>
@@ -16218,7 +16213,7 @@
       </c>
       <c r="K177" s="2"/>
     </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B178" s="2">
         <f t="shared" si="39"/>
         <v>166</v>
@@ -16257,7 +16252,7 @@
       </c>
       <c r="K178" s="2"/>
     </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B179" s="2">
         <f t="shared" si="39"/>
         <v>167</v>
@@ -16296,7 +16291,7 @@
       </c>
       <c r="K179" s="2"/>
     </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B180" s="2">
         <f t="shared" si="39"/>
         <v>168</v>
@@ -16335,7 +16330,7 @@
       </c>
       <c r="K180" s="2"/>
     </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B181" s="2">
         <f t="shared" si="39"/>
         <v>169</v>
@@ -16374,7 +16369,7 @@
       </c>
       <c r="K181" s="2"/>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B182" s="2">
         <f t="shared" si="39"/>
         <v>170</v>
@@ -16413,7 +16408,7 @@
       </c>
       <c r="K182" s="2"/>
     </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B183" s="2">
         <f t="shared" si="39"/>
         <v>171</v>
@@ -16452,7 +16447,7 @@
       </c>
       <c r="K183" s="2"/>
     </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B184" s="2">
         <f t="shared" si="39"/>
         <v>172</v>
@@ -16491,7 +16486,7 @@
       </c>
       <c r="K184" s="2"/>
     </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B185" s="2">
         <f t="shared" si="39"/>
         <v>173</v>
@@ -16530,7 +16525,7 @@
       </c>
       <c r="K185" s="2"/>
     </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B186" s="2">
         <f t="shared" si="39"/>
         <v>174</v>
@@ -16569,7 +16564,7 @@
       </c>
       <c r="K186" s="2"/>
     </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B187" s="2">
         <f t="shared" si="39"/>
         <v>175</v>
@@ -16608,7 +16603,7 @@
       </c>
       <c r="K187" s="2"/>
     </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B188" s="2">
         <f t="shared" si="39"/>
         <v>176</v>
@@ -16647,7 +16642,7 @@
       </c>
       <c r="K188" s="2"/>
     </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B189" s="2">
         <f t="shared" si="39"/>
         <v>177</v>
@@ -16686,7 +16681,7 @@
       </c>
       <c r="K189" s="2"/>
     </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B190" s="2">
         <f t="shared" si="39"/>
         <v>178</v>
@@ -16725,7 +16720,7 @@
       </c>
       <c r="K190" s="2"/>
     </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B191" s="2">
         <f t="shared" si="39"/>
         <v>179</v>
@@ -16764,7 +16759,7 @@
       </c>
       <c r="K191" s="2"/>
     </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B192" s="2">
         <f t="shared" si="39"/>
         <v>180</v>
@@ -16803,7 +16798,7 @@
       </c>
       <c r="K192" s="2"/>
     </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B193" s="2">
         <f t="shared" si="39"/>
         <v>181</v>
@@ -16842,7 +16837,7 @@
       </c>
       <c r="K193" s="2"/>
     </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B194" s="2">
         <f t="shared" si="39"/>
         <v>182</v>
@@ -16881,7 +16876,7 @@
       </c>
       <c r="K194" s="2"/>
     </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B195" s="2">
         <f t="shared" si="39"/>
         <v>183</v>
@@ -16920,7 +16915,7 @@
       </c>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B196" s="2">
         <f t="shared" si="39"/>
         <v>184</v>
@@ -16959,7 +16954,7 @@
       </c>
       <c r="K196" s="2"/>
     </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B197" s="2">
         <f t="shared" si="39"/>
         <v>185</v>
@@ -16998,7 +16993,7 @@
       </c>
       <c r="K197" s="2"/>
     </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B198" s="2">
         <f t="shared" si="39"/>
         <v>186</v>
@@ -17037,7 +17032,7 @@
       </c>
       <c r="K198" s="2"/>
     </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B199" s="2">
         <f t="shared" ref="B199:B262" si="40">B198+1</f>
         <v>187</v>
@@ -17076,7 +17071,7 @@
       </c>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B200" s="2">
         <f t="shared" si="40"/>
         <v>188</v>
@@ -17115,7 +17110,7 @@
       </c>
       <c r="K200" s="2"/>
     </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B201" s="2">
         <f t="shared" si="40"/>
         <v>189</v>
@@ -17154,7 +17149,7 @@
       </c>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B202" s="2">
         <f t="shared" si="40"/>
         <v>190</v>
@@ -17193,7 +17188,7 @@
       </c>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B203" s="2">
         <f t="shared" si="40"/>
         <v>191</v>
@@ -17232,7 +17227,7 @@
       </c>
       <c r="K203" s="2"/>
     </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B204" s="2">
         <f t="shared" si="40"/>
         <v>192</v>
@@ -17271,7 +17266,7 @@
       </c>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B205" s="2">
         <f t="shared" si="40"/>
         <v>193</v>
@@ -17310,7 +17305,7 @@
       </c>
       <c r="K205" s="2"/>
     </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B206" s="2">
         <f t="shared" si="40"/>
         <v>194</v>
@@ -17349,7 +17344,7 @@
       </c>
       <c r="K206" s="2"/>
     </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B207" s="2">
         <f t="shared" si="40"/>
         <v>195</v>
@@ -17388,7 +17383,7 @@
       </c>
       <c r="K207" s="2"/>
     </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B208" s="2">
         <f t="shared" si="40"/>
         <v>196</v>
@@ -17427,7 +17422,7 @@
       </c>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B209" s="2">
         <f t="shared" si="40"/>
         <v>197</v>
@@ -17466,7 +17461,7 @@
       </c>
       <c r="K209" s="2"/>
     </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B210" s="2">
         <f t="shared" si="40"/>
         <v>198</v>
@@ -17505,7 +17500,7 @@
       </c>
       <c r="K210" s="2"/>
     </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B211" s="2">
         <f t="shared" si="40"/>
         <v>199</v>
@@ -17544,7 +17539,7 @@
       </c>
       <c r="K211" s="2"/>
     </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B212" s="2">
         <f t="shared" si="40"/>
         <v>200</v>
@@ -17583,7 +17578,7 @@
       </c>
       <c r="K212" s="2"/>
     </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B213" s="2">
         <f t="shared" si="40"/>
         <v>201</v>
@@ -17622,7 +17617,7 @@
       </c>
       <c r="K213" s="2"/>
     </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B214" s="2">
         <f t="shared" si="40"/>
         <v>202</v>
@@ -17661,7 +17656,7 @@
       </c>
       <c r="K214" s="2"/>
     </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B215" s="2">
         <f t="shared" si="40"/>
         <v>203</v>
@@ -17700,7 +17695,7 @@
       </c>
       <c r="K215" s="2"/>
     </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B216" s="2">
         <f t="shared" si="40"/>
         <v>204</v>
@@ -17739,7 +17734,7 @@
       </c>
       <c r="K216" s="2"/>
     </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B217" s="2">
         <f t="shared" si="40"/>
         <v>205</v>
@@ -17778,7 +17773,7 @@
       </c>
       <c r="K217" s="2"/>
     </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B218" s="2">
         <f t="shared" si="40"/>
         <v>206</v>
@@ -17817,7 +17812,7 @@
       </c>
       <c r="K218" s="2"/>
     </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B219" s="2">
         <f t="shared" si="40"/>
         <v>207</v>
@@ -17856,7 +17851,7 @@
       </c>
       <c r="K219" s="2"/>
     </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B220" s="2">
         <f t="shared" si="40"/>
         <v>208</v>
@@ -17895,7 +17890,7 @@
       </c>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B221" s="2">
         <f t="shared" si="40"/>
         <v>209</v>
@@ -17934,7 +17929,7 @@
       </c>
       <c r="K221" s="2"/>
     </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B222" s="2">
         <f t="shared" si="40"/>
         <v>210</v>
@@ -17973,7 +17968,7 @@
       </c>
       <c r="K222" s="2"/>
     </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B223" s="2">
         <f t="shared" si="40"/>
         <v>211</v>
@@ -18012,7 +18007,7 @@
       </c>
       <c r="K223" s="2"/>
     </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B224" s="2">
         <f t="shared" si="40"/>
         <v>212</v>
@@ -18051,7 +18046,7 @@
       </c>
       <c r="K224" s="2"/>
     </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B225" s="2">
         <f t="shared" si="40"/>
         <v>213</v>
@@ -18090,7 +18085,7 @@
       </c>
       <c r="K225" s="2"/>
     </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B226" s="2">
         <f t="shared" si="40"/>
         <v>214</v>
@@ -18129,7 +18124,7 @@
       </c>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B227" s="2">
         <f t="shared" si="40"/>
         <v>215</v>
@@ -18168,7 +18163,7 @@
       </c>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B228" s="2">
         <f t="shared" si="40"/>
         <v>216</v>
@@ -18207,7 +18202,7 @@
       </c>
       <c r="K228" s="2"/>
     </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B229" s="2">
         <f t="shared" si="40"/>
         <v>217</v>
@@ -18246,7 +18241,7 @@
       </c>
       <c r="K229" s="2"/>
     </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B230" s="2">
         <f t="shared" si="40"/>
         <v>218</v>
@@ -18285,7 +18280,7 @@
       </c>
       <c r="K230" s="2"/>
     </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B231" s="2">
         <f t="shared" si="40"/>
         <v>219</v>
@@ -18324,7 +18319,7 @@
       </c>
       <c r="K231" s="2"/>
     </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B232" s="2">
         <f t="shared" si="40"/>
         <v>220</v>
@@ -18363,7 +18358,7 @@
       </c>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B233" s="2">
         <f t="shared" si="40"/>
         <v>221</v>
@@ -18402,7 +18397,7 @@
       </c>
       <c r="K233" s="2"/>
     </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B234" s="2">
         <f t="shared" si="40"/>
         <v>222</v>
@@ -18441,7 +18436,7 @@
       </c>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B235" s="2">
         <f t="shared" si="40"/>
         <v>223</v>
@@ -18480,7 +18475,7 @@
       </c>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B236" s="2">
         <f t="shared" si="40"/>
         <v>224</v>
@@ -18519,7 +18514,7 @@
       </c>
       <c r="K236" s="2"/>
     </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B237" s="2">
         <f t="shared" si="40"/>
         <v>225</v>
@@ -18558,7 +18553,7 @@
       </c>
       <c r="K237" s="2"/>
     </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B238" s="2">
         <f t="shared" si="40"/>
         <v>226</v>
@@ -18597,7 +18592,7 @@
       </c>
       <c r="K238" s="2"/>
     </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B239" s="2">
         <f t="shared" si="40"/>
         <v>227</v>
@@ -18636,7 +18631,7 @@
       </c>
       <c r="K239" s="2"/>
     </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B240" s="2">
         <f t="shared" si="40"/>
         <v>228</v>
@@ -18675,7 +18670,7 @@
       </c>
       <c r="K240" s="2"/>
     </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B241" s="2">
         <f t="shared" si="40"/>
         <v>229</v>
@@ -18714,7 +18709,7 @@
       </c>
       <c r="K241" s="2"/>
     </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B242" s="2">
         <f t="shared" si="40"/>
         <v>230</v>
@@ -18753,7 +18748,7 @@
       </c>
       <c r="K242" s="2"/>
     </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B243" s="2">
         <f t="shared" si="40"/>
         <v>231</v>
@@ -18792,7 +18787,7 @@
       </c>
       <c r="K243" s="2"/>
     </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B244" s="2">
         <f t="shared" si="40"/>
         <v>232</v>
@@ -18831,7 +18826,7 @@
       </c>
       <c r="K244" s="2"/>
     </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B245" s="2">
         <f t="shared" si="40"/>
         <v>233</v>
@@ -18870,7 +18865,7 @@
       </c>
       <c r="K245" s="2"/>
     </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B246" s="2">
         <f t="shared" si="40"/>
         <v>234</v>
@@ -18909,7 +18904,7 @@
       </c>
       <c r="K246" s="2"/>
     </row>
-    <row r="247" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B247" s="2">
         <f t="shared" si="40"/>
         <v>235</v>
@@ -18948,7 +18943,7 @@
       </c>
       <c r="K247" s="2"/>
     </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B248" s="2">
         <f t="shared" si="40"/>
         <v>236</v>
@@ -18987,7 +18982,7 @@
       </c>
       <c r="K248" s="2"/>
     </row>
-    <row r="249" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B249" s="2">
         <f t="shared" si="40"/>
         <v>237</v>
@@ -19026,7 +19021,7 @@
       </c>
       <c r="K249" s="2"/>
     </row>
-    <row r="250" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B250" s="2">
         <f t="shared" si="40"/>
         <v>238</v>
@@ -19065,7 +19060,7 @@
       </c>
       <c r="K250" s="2"/>
     </row>
-    <row r="251" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B251" s="2">
         <f t="shared" si="40"/>
         <v>239</v>
@@ -19104,7 +19099,7 @@
       </c>
       <c r="K251" s="2"/>
     </row>
-    <row r="252" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B252" s="2">
         <f t="shared" si="40"/>
         <v>240</v>
@@ -19143,7 +19138,7 @@
       </c>
       <c r="K252" s="2"/>
     </row>
-    <row r="253" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B253" s="2">
         <f t="shared" si="40"/>
         <v>241</v>
@@ -19182,7 +19177,7 @@
       </c>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B254" s="2">
         <f t="shared" si="40"/>
         <v>242</v>
@@ -19221,7 +19216,7 @@
       </c>
       <c r="K254" s="2"/>
     </row>
-    <row r="255" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B255" s="2">
         <f t="shared" si="40"/>
         <v>243</v>
@@ -19260,7 +19255,7 @@
       </c>
       <c r="K255" s="2"/>
     </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B256" s="2">
         <f t="shared" si="40"/>
         <v>244</v>
@@ -19299,7 +19294,7 @@
       </c>
       <c r="K256" s="2"/>
     </row>
-    <row r="257" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B257" s="2">
         <f t="shared" si="40"/>
         <v>245</v>
@@ -19338,7 +19333,7 @@
       </c>
       <c r="K257" s="2"/>
     </row>
-    <row r="258" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B258" s="2">
         <f t="shared" si="40"/>
         <v>246</v>
@@ -19377,7 +19372,7 @@
       </c>
       <c r="K258" s="2"/>
     </row>
-    <row r="259" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B259" s="2">
         <f t="shared" si="40"/>
         <v>247</v>
@@ -19416,7 +19411,7 @@
       </c>
       <c r="K259" s="2"/>
     </row>
-    <row r="260" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B260" s="2">
         <f t="shared" si="40"/>
         <v>248</v>
@@ -19455,7 +19450,7 @@
       </c>
       <c r="K260" s="2"/>
     </row>
-    <row r="261" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B261" s="2">
         <f t="shared" si="40"/>
         <v>249</v>
@@ -19494,7 +19489,7 @@
       </c>
       <c r="K261" s="2"/>
     </row>
-    <row r="262" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B262" s="2">
         <f t="shared" si="40"/>
         <v>250</v>
@@ -19533,7 +19528,7 @@
       </c>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B263" s="2">
         <f>B262+1</f>
         <v>251</v>
@@ -19572,7 +19567,7 @@
       </c>
       <c r="K263" s="2"/>
     </row>
-    <row r="264" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B264" s="2">
         <f>B263+1</f>
         <v>252</v>
@@ -19611,7 +19606,7 @@
       </c>
       <c r="K264" s="2"/>
     </row>
-    <row r="265" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B265" s="2">
         <f>B264+1</f>
         <v>253</v>
@@ -19650,7 +19645,7 @@
       </c>
       <c r="K265" s="2"/>
     </row>
-    <row r="266" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B266" s="2">
         <f>B265+1</f>
         <v>254</v>
@@ -19689,7 +19684,7 @@
       </c>
       <c r="K266" s="2"/>
     </row>
-    <row r="267" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B267" s="2">
         <f>B266+1</f>
         <v>255</v>
@@ -19734,6 +19729,7 @@
     <mergeCell ref="V11:Y11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>